--- a/biology/Botanique/Erigeron_compositus/Erigeron_compositus.xlsx
+++ b/biology/Botanique/Erigeron_compositus/Erigeron_compositus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erigeron compositus
 La vergerette à feuilles segmentées (Erigeron compositus) est une espèce de plantes à fleurs du genre Erigeron appartenant à la famille des Asteraceae que l'on rencontre du nord-ouest de l'Amérique du Nord, au Groenland, dans les régions arctiques et dans l'Extrême-Orient russe.
@@ -512,9 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Erigeron compositus a été décrite par Frederick Traugott Pursh dans Flora Americae Septentrionalis; 2: 535. 1814 [1813][1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'espèce Erigeron compositus a été décrite par Frederick Traugott Pursh dans Flora Americae Septentrionalis; 2: 535. 1814 .
 Synonymes
 Cineraria lewisii Richardson
 Erigeron gormanii Greene
@@ -523,7 +537,7 @@
 Erigeron multifidus var. incertus A.Nelson
 Erigeron pedatus Nutt.
 Erigeron trifidus var. discoideus (A.Gray) A.Nelson
-Erigeron trifidus var. prasinus J.F.Macbr. &amp; Payson[2]</t>
+Erigeron trifidus var. prasinus J.F.Macbr. &amp; Payson</t>
         </is>
       </c>
     </row>
@@ -551,7 +565,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante vivace atteint une taille de 5 à 15 cm de hauteur. Ses racines simples sont relativement grosses et courtes, avec des tiges dressées. Les feuilles, majoritairement basales et sempervirentes, sont spatulées à ovales-spatulées et mesurent 5-50 × 4–12 mm, avec des bords lobés. Ses involucres mesurent 10,5 × 20,8 mm. Les fleurs se présentent en bractées de deux à trois séries avec des corolles blanches ou de couleur blanc rosâtre, mesurant entre 6 et 12 mm. Nombre de chromosomes: 2 n = 18, 36, 45, 54.
 </t>
@@ -582,7 +598,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Erigeron compositus apprécie les prés subalpins, les talus et les éboulis rocheux.
 </t>
